--- a/Automation/RESOURCES/TestData.xlsx
+++ b/Automation/RESOURCES/TestData.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,12 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,15 +415,11 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <cols>
-    <col width="39.90625" customWidth="1" style="1" min="5" max="5"/>
-    <col width="50" customWidth="1" style="1" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -460,27 +456,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KJoybj190</t>
+          <t>FQnBDZ502</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Xf2A8a0c6X7</t>
+          <t>gp6d8n3q0q1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stein</t>
+          <t>Pierce</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+358 632939638</t>
+          <t>+358 498976158</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -492,27 +488,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MpNIMn867</t>
+          <t>kCiEBc512</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>iL3F7i4U1e3</t>
+          <t>sQ4n3D2w4a4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Christina</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Perez</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>065 219 6622</t>
+          <t>+358 304235889</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -524,27 +520,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>qhmzZv047</t>
+          <t>QkATBy376</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>to5A3p2i9R6</t>
+          <t>mo9n7J6s1Y9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vang</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>066 590 3124</t>
+          <t>(+358) 617627799</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -556,27 +552,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIIqLU918</t>
+          <t>icAGNN320</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>YY4G0K1r7x2</t>
+          <t>Mr6x1d1l2x7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Edgar</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Best</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>+358 978029001</t>
+          <t>+358790631045</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,27 +584,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RyIBNQ907</t>
+          <t>xmVzng494</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>in5v1f6n7S1</t>
+          <t>wY8r7G4e6M2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shawn</t>
+          <t>Shelley</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ramsey</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+358151662824</t>
+          <t>0048394263</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -620,27 +616,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xbmfKc296</t>
+          <t>QOxxyB277</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>oe9T2X8l7K0</t>
+          <t>JT5s8F6V6q3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tanya</t>
+          <t>Theresa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>044 074 6062</t>
+          <t>0472454559</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,27 +648,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JJHNRb176</t>
+          <t>aBvjsE027</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lY1H7M2H9N8</t>
+          <t>IW4j6S4H5V5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lauren</t>
+          <t>William</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rowland</t>
+          <t>Watkins</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0599532462</t>
+          <t>+358 010879460</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -684,2564 +680,2484 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>byDiZq966</t>
+          <t>CbGOdq816</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ak4i0y8u3m9</t>
+          <t>go2R3K8w3d1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Margaret</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Avila</t>
+          <t>Barton</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>+358 16 1102776</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>+358 749069740</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vfFIDn732</t>
+          <t>GmKxGH411</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>vr3z5N6v4B5</t>
+          <t>wx8G0B6c9N9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kenneth</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Haynes</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+358994646432</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>0161978464</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IonYZN214</t>
+          <t>JhhqJK878</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZO3i6p7E2z6</t>
+          <t>aC0A3V4V5V2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dickerson</t>
+          <t>Holloway</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0093884860</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>(+358) 396771191</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>wnrmIg536</t>
+          <t>icVohU585</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UW7v0T9b2X5</t>
+          <t>Cc1J3B5K0S2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bryan</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Delgado</t>
+          <t>Hanna</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>+358 501071159</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>+358 967976908</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jEqFjv117</t>
+          <t>Dcldhs352</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pg6X7F9p1n7</t>
+          <t>kf5n5o1C7u1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Cheyenne</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cline</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0795848761</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>+358 562255416</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KcWorD876</t>
+          <t>UJUusF179</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Iq3N3G0E2w3</t>
+          <t>Wz7p9Y8A2G1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bryan</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Edwards</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(+358) 088141594</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>+358 34 5373931</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>YjOaim201</t>
+          <t>BMOzEc193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>uQ9W8y6d2n2</t>
+          <t>tP8T7b8z9z3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Catherine</t>
+          <t>Aimee</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lozano</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+358364018862</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>+358 25 4637321</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>kwnwMC501</t>
+          <t>ADstes914</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ri3D0B7A2J2</t>
+          <t>Ck6x7z7A6O7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Pratt</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>+358 642070232</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>+358 28 1713150</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>XSAGKY628</t>
+          <t>zolBOl207</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bf0J0N9W0C2</t>
+          <t>cj6K5v9r0p5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Bryant</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(+358) 069178076</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>+358275195230</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lbTPWn741</t>
+          <t>KDzMit753</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vq7a0K7b5z8</t>
+          <t>sb1N2H2U5N9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Cheryl</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Page</t>
+          <t>Rich</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+358 23 8069741</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>0360464427</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dXvMAB884</t>
+          <t>PMyCnL536</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sx3p6o6z6z6</t>
+          <t>Hb1s5Q9D0c4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nichols</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(+358) 319719136</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>(+358) 544860981</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZGAyCh468</t>
+          <t>pQvsrC587</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>uC0E4N7n7K2</t>
+          <t>uj9F7M5E5G8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Jillian</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lambert</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(+358) 588763347</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>0229909301</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PZMoZl766</t>
+          <t>zBvdeS426</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tM3G9l1u6t7</t>
+          <t>kr0q5I5h3A0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ramirez</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>+358 81 9459796</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>0675238720</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PVMBgv710</t>
+          <t>oatEpX338</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>To1y7E5l6a3</t>
+          <t>qd6V9V5K5d7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Miranda</t>
+          <t>Duran</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>+358 20 0699125</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>+358 21 5015321</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dANjVH508</t>
+          <t>cOnIuG161</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Zm1M6N1A8v1</t>
+          <t>Sr9Q3V4t1S8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(+358) 922433521</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>+358 87 6982814</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>XZHuVX055</t>
+          <t>uMGpwR380</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sD8c3h3f6s2</t>
+          <t>Nl3B5J8f9Z2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wolfe</t>
+          <t>Cook</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>077 237 3586</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>(+358) 949012541</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EQhTkz674</t>
+          <t>xhzbmD295</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Im4e7s3j9q6</t>
+          <t>vx6R9m3M6T0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Kimberly</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Robbins</t>
+          <t>Sweeney</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+358 21 9299471</t>
+          <t>+358348207305</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EXJKVa705</t>
+          <t>DjTSKT538</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jf2t4t3O1I9</t>
+          <t>sq4S8x8A8C1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Shawn</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Figueroa</t>
+          <t>Daniels</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>+358 92 4068678</t>
+          <t>0754687751</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>baprUG073</t>
+          <t>rxQdBj474</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jC0G2q7G4r1</t>
+          <t>Dy8a6S3D8q9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bryant</t>
+          <t>Rhodes</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>+358220580646</t>
+          <t>(+358) 583016720</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>uATlyW831</t>
+          <t>XqtuHG975</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>QB8g5X9A4C5</t>
+          <t>uJ4v3e1Z8s1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Laurie</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Oliver</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>+358 34 1163613</t>
+          <t>049 350 5168</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bxwsuo149</t>
+          <t>AOEzqJ872</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Zs3f6C2C2v0</t>
+          <t>ZR7J7g6O5w4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ortega</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>+358 473736793</t>
+          <t>(+358) 270268543</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fJmXNR398</t>
+          <t>LrdTzV861</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WW3x5S7m6U9</t>
+          <t>kj7J2s0y7X5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Miguel</t>
+          <t>Shelby</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Singh</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>+358868657335</t>
+          <t>(+358) 405964153</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>jFOtkX862</t>
+          <t>dhykye422</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jy6B3s0r9M7</t>
+          <t>fO3z8Q6K9I0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Olivia</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rollins</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>+358 812701232</t>
+          <t>053 462 7079</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>isTPXu559</t>
+          <t>yRDqMc840</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vH9J3n5K4z6</t>
+          <t>ZH3F7j8n2k6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tammie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hughes</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>+358 35 4030458</t>
+          <t>094 365 8619</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DVQiSb835</t>
+          <t>kbNCGA085</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hf6Q7f2o4Y6</t>
+          <t>rL5q9G7X1S3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Lawrence</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>+358876704003</t>
+          <t>0384104392</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>unfUer419</t>
+          <t>LrsjLt578</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>hS3f6Q0X5q6</t>
+          <t>Fc3Z7d7d3c9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Vernon</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Stone</t>
+          <t>White</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>+358 097151106</t>
+          <t>(+358) 366406574</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SePQRQ176</t>
+          <t>nBLwNI652</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AR2d1X7f9L8</t>
+          <t>sr3U1S1J1N8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>+358 87 9529159</t>
+          <t>0965399942</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ucHXbl521</t>
+          <t>HSHSdd336</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ga9F7P1G3n0</t>
+          <t>iO4O0U5c1u9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Luna</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>+358 018835181</t>
+          <t>+358090262890</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>gcqTpJ544</t>
+          <t>VfsaNi071</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JW4D5F2k4S6</t>
+          <t>zK8p3b2M6r5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kristina</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Calhoun</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>035 501 0505</t>
+          <t>+358 13 8594957</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>wJEYOz364</t>
+          <t>uUDzwj309</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>iw9L4v1p4J5</t>
+          <t>Fl4O7b2u4I4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Haney</t>
+          <t>Ortiz</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>+358 803135694</t>
+          <t>+358 432026022</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SLeAOP077</t>
+          <t>faQOKw422</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ds2e9x0b6g1</t>
+          <t>AK2E8N0G1L9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Turner</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>+358 38 3029608</t>
+          <t>046 062 9349</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>anbCRk595</t>
+          <t>poEXpP034</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>yv2N7U8i0z0</t>
+          <t>UD9T2l9q3Z8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Munoz</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>+358694978108</t>
+          <t>+358 38 7951468</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KwRcNs551</t>
+          <t>BqrKLk118</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>dX4e0Z4v6Q3</t>
+          <t>DM5J4o8j7K4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Stefanie</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wade</t>
+          <t>Chapman</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>+358851878327</t>
+          <t>(+358) 072118979</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>kyanED240</t>
+          <t>uDORuv615</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ct2N8q7f3A7</t>
+          <t>TM0e1r3J2F6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>(+358) 178525617</t>
+          <t>(+358) 043459255</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TCisJi334</t>
+          <t>dAuXAw319</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>uy2r7g3M8n5</t>
+          <t>OO0m1t9P1R1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Damon</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Buchanan</t>
+          <t>Russo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>+358450181241</t>
+          <t>063 023 6722</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>jdLrti715</t>
+          <t>QiMazf158</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nV5W9E2y6O0</t>
+          <t>Kg8I2j9x9y6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Alexandra</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Franco</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0300016183</t>
+          <t>+358 14 3952392</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bosoRu390</t>
+          <t>lFcTaa557</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>xo6v0o2q5N0</t>
+          <t>dg4W8l4h4c7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Curtis</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Tucker</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>(+358) 159912417</t>
+          <t>0465756275</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TPJNQJ823</t>
+          <t>CQfFpx639</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Oo6a8S4S9E3</t>
+          <t>cO1V8D2d0A5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mckay</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>+358 562717366</t>
+          <t>029 144 1798</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WHoZVo505</t>
+          <t>VtMaNF251</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>zC0t3G8u7G7</t>
+          <t>Fq6f4V0d2M4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>+358 719072902</t>
+          <t>(+358) 134245939</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XJuXuN771</t>
+          <t>WwFEaS587</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Rw4n7h3J0a9</t>
+          <t>Jn2B4o6r5z1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Myers</t>
+          <t>Gibson</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>+358 610240181</t>
+          <t>(+358) 865409593</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VJQXKi577</t>
+          <t>GjMEEB936</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sA2h9L6H9Z3</t>
+          <t>Nr7K9h2b2i9</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wilkins</t>
+          <t>Summers</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>+358 030215722</t>
+          <t>+358 05 4264065</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>tNJAJm560</t>
+          <t>ZZyefb972</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dg3Q9r7K9V1</t>
+          <t>IK4w2x4M7J9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Chase</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Walsh</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>(+358) 139390392</t>
+          <t>+358 109374398</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>XSLsyG947</t>
+          <t>FddHoj609</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tt9X4A8U5W6</t>
+          <t>xZ0h8h5K5r6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Jeremy</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hill</t>
+          <t>Newton</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>052 402 2383</t>
+          <t>(+358) 830029962</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>fYpxYF369</t>
+          <t>RfgDwP369</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>uZ5c3l0l6l8</t>
+          <t>Vz9H7d4t1B9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Garrett</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0365191598</t>
+          <t>+358560633282</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>dNctGV651</t>
+          <t>yYZtNY010</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HK7W6j9H8A7</t>
+          <t>iv1L6j0D0J2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cheyenne</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Moreno</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>082 485 7917</t>
+          <t>080 381 6426</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ixYDQN729</t>
+          <t>xTPaZR527</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ZU2A5t0f6z9</t>
+          <t>BX8K2K4I8g7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Weaver</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>(+358) 472691509</t>
+          <t>+358 60 4014735</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HOrkIO681</t>
+          <t>TSJcFf884</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wy7t1S1w3y5</t>
+          <t>ml8x3w1y5g2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>+358 28 1516513</t>
+          <t>+358 701897834</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ipLBNk699</t>
+          <t>ENyXEb145</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Jq1N7t4E5m0</t>
+          <t>kU0M4i8O9X0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cheryl</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Schwartz</t>
+          <t>Spencer</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>(+358) 859961024</t>
+          <t>+358 801807224</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IIXOFO301</t>
+          <t>VCOuMs956</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>qD2u2O0K8J1</t>
+          <t>xA5G1Q0L2v6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Welch</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0831424421</t>
+          <t>+358867839064</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>uLKoPL950</t>
+          <t>sYOkRF443</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GS4D0O4E8N5</t>
+          <t>ZW4F9s0n1i3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Alicia</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Woods</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>(+358) 933445462</t>
+          <t>+358691842696</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kOuXms187</t>
+          <t>OjPzqb717</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SJ4l6C6L6e9</t>
+          <t>GW1D7g3R0T2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Cannon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>086 002 0039</t>
+          <t>(+358) 301322470</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JadTFB665</t>
+          <t>zsrUod200</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FS5V5G4i1l7</t>
+          <t>Bz3y4W9y6e1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Saunders</t>
+          <t>Ray</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>+358536858820</t>
+          <t>(+358) 744912940</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>tgnKlu649</t>
+          <t>VhdsUl366</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bj1J0l9C1t1</t>
+          <t>Vo9T9e2Y9H2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Petersen</t>
+          <t>Mcdonald</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>041 081 3726</t>
+          <t>+358382274263</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HXnxgx852</t>
+          <t>KFSUpV403</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>fa4f2o1B8G6</t>
+          <t>RY0k0C8m6j8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Gina</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Landry</t>
+          <t>Escobar</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0433087587</t>
+          <t>+358 35 4324887</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ujnItt062</t>
+          <t>mPiNsp042</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SQ9Z2x8B1Y1</t>
+          <t>UL6m9Y8h5n9</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Kristina</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Bell</t>
+          <t>Miles</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>+358040417885</t>
+          <t>014 293 5003</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IXmSVA345</t>
+          <t>AZPWYJ269</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>nU0l2e1u9m6</t>
+          <t>jV5V3t6n2u6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Lawson</t>
+          <t>Huber</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>+358617513812</t>
+          <t>029 285 6007</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IEUnBB607</t>
+          <t>tfJFuE026</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Xc9q9m4R0i3</t>
+          <t>Pa6M8y9f0r3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Edward</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Burns</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>001 365 4983</t>
+          <t>+358 161020380</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>dTqqmG305</t>
+          <t>cEaaUl568</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>IH3d7L4w2j2</t>
+          <t>yw7d2i0r3x0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jillian</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0075057692</t>
+          <t>+358 372079244</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CpEpGJ479</t>
+          <t>UnAJpd814</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Zr6v2y7A3c8</t>
+          <t>Ku1S6Z1D8h1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Olivia</t>
+          <t>Dominique</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Harmon</t>
+          <t>Hogan</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>(+358) 743277031</t>
+          <t>0043430930</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>qmvggc490</t>
+          <t>oZWGes252</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Io2o4P0s5C8</t>
+          <t>Av6G2a6E9A6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Janet</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Harvey</t>
+          <t>Delgado</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>+358 09 1194041</t>
+          <t>(+358) 895802422</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PJfiHZ489</t>
+          <t>teBLTQ832</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>qg1P7E4l6T0</t>
+          <t>QK8X9G6v5g9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Hogan</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0407241567</t>
+          <t>0076257970</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>YBBCmx204</t>
+          <t>uBGcSd623</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>qx5W0b5x3R4</t>
+          <t>GH2i2w5S3y9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cooper</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>+358788672767</t>
+          <t>0370353568</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sKudvi371</t>
+          <t>RwXelE241</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pa3h5m4s8t9</t>
+          <t>eK9n8s3c8D0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kaitlyn</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Welch</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>(+358) 441393059</t>
+          <t>0812505776</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WGGhON233</t>
+          <t>lkdhNK529</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ha4j2z9G9F8</t>
+          <t>zA7T3k4P3Y8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Carlson</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>056 183 1096</t>
+          <t>+358 907408290</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hkrrEo101</t>
+          <t>OYLKJg636</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FH2h9I8A5k8</t>
+          <t>yu3J3d2J2n7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>Cabrera</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>(+358) 693737133</t>
+          <t>+358 33 3003510</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>diDzop843</t>
+          <t>rnqjQg098</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>XK9O4Q1W4F5</t>
+          <t>Rv3g0t1G6O2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>+358678108401</t>
+          <t>0294323424</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>kObYyr498</t>
+          <t>FLMesw018</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RL6C8Y8M3o0</t>
+          <t>Hh6F1M1t7i9</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Lyons</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>+358288360958</t>
+          <t>+358 94 5212329</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LxuOFb993</t>
+          <t>iSkYSs493</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>hS3U3Q8N7f5</t>
+          <t>Ad9U9q7u6d0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Macias</t>
+          <t>Robbins</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>064 081 9499</t>
+          <t>078 316 0182</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>UNInti378</t>
+          <t>iWKDEF057</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>wi3i5Z0C5y3</t>
+          <t>Vw9z7O2h7P9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lauren</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Hubbard</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>(+358) 606589291</t>
+          <t>+358850595601</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vYaYwW586</t>
+          <t>FuslXq316</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ga7C6d9L6M7</t>
+          <t>rc1g6L5T5h0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Ronnie</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mcdaniel</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>+358496048079</t>
+          <t>004 350 8189</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>dNCESZ326</t>
+          <t>tPhhtX387</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ea7I3M6s2V7</t>
+          <t>ll0S9z9V7W2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Yoder</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>051 750 8233</t>
+          <t>0750005567</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BoSbDV924</t>
+          <t>hmumea542</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ev3q3w2H8n0</t>
+          <t>hr2u5Z9f9w9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tricia</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Schmidt</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>(+358) 428998821</t>
+          <t>031 437 0915</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>VJBqrM013</t>
+          <t>dEYjqZ448</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>nY5W6x2b2C9</t>
+          <t>TZ7L7g4V7P6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Michele</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Rosales</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>+358 608294236</t>
+          <t>+358474042448</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BZLXLE143</t>
+          <t>AvOAIt611</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>dX3t5L4Z3Q2</t>
+          <t>jZ8X0v6U0s1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Jill</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Hill</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>+358406988619</t>
+          <t>+358540443547</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>VEwsRy649</t>
+          <t>TgKSSS808</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bH2t3i9W1U2</t>
+          <t>Kd0v9p5r0u6</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hector</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Meza</t>
+          <t>Whitaker</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>+358 981537396</t>
+          <t>+358 15 4492545</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>OSImCq197</t>
+          <t>jtsvMC682</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sv9B8b3u0j8</t>
+          <t>Ga0w9O7c3y2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tricia</t>
+          <t>Carrie</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Olson</t>
+          <t>Fernandez</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>(+358) 246246581</t>
+          <t>0458988944</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>luGLtc872</t>
+          <t>YfJPlC873</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>IZ2X4D2K1R5</t>
+          <t>IC6B4K1b7k4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Erin</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Cook</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>+358 085909385</t>
+          <t>+358 66 8468228</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>tAaMyL008</t>
+          <t>FpEOQc882</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KB3N7h3W8g5</t>
+          <t>vR2R2H5s4S6</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Bell</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0007591679</t>
+          <t>+358350099675</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sBoVab404</t>
+          <t>PBMXto161</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>iZ1b6A6N5q9</t>
+          <t>Fy9i0j9s9L5</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Jasmin</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>King</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>+358232165041</t>
+          <t>+358 66 6582974</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tfMTop988</t>
+          <t>GkDRKk357</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tv4x1Q8y7q0</t>
+          <t>ns3N2N8s9q3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Gutierrez</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>+358388034824</t>
+          <t>0157613365</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bmveSh984</t>
+          <t>dcMrEe983</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>kX6q5a5w9w3</t>
+          <t>Cw1r8s0g2v1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Ingram</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>+358 700591562</t>
+          <t>0809039265</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>vzSkMN227</t>
+          <t>TRQxja959</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>dO4Q2L0d9H0</t>
+          <t>zD0y5M9b0m8</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Cody</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>+358 542988824</t>
+          <t>0937580651</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>YquPBS216</t>
+          <t>tHveBN564</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ps4a6q2W3T8</t>
+          <t>fL4e3q2i5D0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Calvin</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Wong</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>(+358) 196036172</t>
+          <t>+358810992328</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PJjsTc647</t>
+          <t>pHpZmW875</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ay5g6T6h9F6</t>
+          <t>SO0G3n2H1l1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Page</t>
+          <t>Harris</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>+358 60 5697901</t>
+          <t>070 165 1501</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RWKMJq447</t>
+          <t>hgoryt870</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rw1m0X8c9X8</t>
+          <t>cc0e3O4C8O6</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Johnny</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>+358 395187972</t>
+          <t>0450704975</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TiMrUC374</t>
+          <t>CfQACx572</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>wx8N3N6Q0p3</t>
+          <t>Dp8s1P6C7G7</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Gilbert</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Robles</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>+358 02 9841495</t>
+          <t>0151667082</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EjCZSq439</t>
+          <t>BgtuBa171</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Pw8g6X8z5W4</t>
+          <t>YR3i6Q2D9H9</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Alvin</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Malone</t>
+          <t>Soto</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>+358258632936</t>
+          <t>086 634 9923</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>gedPRg062</t>
+          <t>WtdLST839</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Su2x1V4L8W8</t>
+          <t>mD5q0B5t9W3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Kaylee</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Rosales</t>
+          <t>Velazquez</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>(+358) 679272775</t>
+          <t>067 987 5624</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>yngkJc403</t>
+          <t>saIrRS371</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jc7P1j6n1c6</t>
+          <t>eX3U6p2X0y2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Pena</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>(+358) 859594394</t>
+          <t>+358 09 5346738</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NVnddj997</t>
+          <t>CMpVwi800</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Wf4a0D1E0g7</t>
+          <t>Ez4t8Z7Y8c4</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>Alvin</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>+358 713302295</t>
+          <t>(+358) 613621445</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>piIKgx930</t>
+          <t>RjjZmy605</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Vg4u1R3t5W3</t>
+          <t>Ui0S2K9m5I1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Cain</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>(+358) 024779646</t>
+          <t>+358968569242</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DBMGHQ981</t>
+          <t>biQUeY839</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mo7u2n5S1b2</t>
+          <t>So9z3O9S3C8</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Lane</t>
+          <t>Fleming</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>+358 64 1483179</t>
+          <t>+358 240797854</t>
         </is>
       </c>
     </row>
